--- a/Ruby/CatalogGenerateur/logical_catalog_v5.xlsx
+++ b/Ruby/CatalogGenerateur/logical_catalog_v5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="221">
   <si>
     <t>indice</t>
   </si>
@@ -536,6 +536,153 @@
   </si>
   <si>
     <t>CUEAC6-25S01S</t>
+  </si>
+  <si>
+    <t>Service France Ucaas-HCS862V2-MW2</t>
+  </si>
+  <si>
+    <t>SERVICE-HCS862V2-MW2</t>
+  </si>
+  <si>
+    <t>UCS20000P01</t>
+  </si>
+  <si>
+    <t>UCS20000S01</t>
+  </si>
+  <si>
+    <t>UCS20000S02</t>
+  </si>
+  <si>
+    <t>UCS20000S03</t>
+  </si>
+  <si>
+    <t>UCS20000S04</t>
+  </si>
+  <si>
+    <t>UCS20000S05</t>
+  </si>
+  <si>
+    <t>UCS20000S06</t>
+  </si>
+  <si>
+    <t>UCS20000S07</t>
+  </si>
+  <si>
+    <t>UCS20000S08</t>
+  </si>
+  <si>
+    <t>UCS20000S09</t>
+  </si>
+  <si>
+    <t>UCS20000S10</t>
+  </si>
+  <si>
+    <t>UC20000CNX01</t>
+  </si>
+  <si>
+    <t>UC20000PS01</t>
+  </si>
+  <si>
+    <t>UC20000PS02</t>
+  </si>
+  <si>
+    <t>UC100CX01</t>
+  </si>
+  <si>
+    <t>UC300CX01</t>
+  </si>
+  <si>
+    <t>UCSP01 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS01 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS02 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS03 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS04 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS05 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS06 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS07 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS08 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS09 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCSS10 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCNX01 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCPS01 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>UCPS02 20000 HCS 8.6.2-V2</t>
+  </si>
+  <si>
+    <t>RedHat</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -884,7 +1031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1014,6 +1161,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1059,13 +1255,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1477,16 +1686,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="4"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
@@ -1574,7 +1786,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D2,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H2,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J2,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D2,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H2,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J2,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>101011</v>
       </c>
       <c r="C2" t="s">
@@ -1640,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D3,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H3,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J3,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D3,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H3,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J3,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>101022</v>
       </c>
       <c r="C3" t="s">
@@ -1706,7 +1918,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D4,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H4,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J4,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D4,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H4,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J4,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>102011</v>
       </c>
       <c r="C4" t="s">
@@ -1772,7 +1984,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D5,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H5,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J5,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D5,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H5,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J5,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>102022</v>
       </c>
       <c r="C5" t="s">
@@ -1838,7 +2050,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D6,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H6,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J6,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D6,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H6,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J6,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>103011</v>
       </c>
       <c r="C6" t="s">
@@ -1910,7 +2122,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D7,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H7,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J7,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D7,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H7,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J7,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>103022</v>
       </c>
       <c r="C7" t="s">
@@ -1982,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D8,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H8,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J8,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D8,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H8,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J8,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>104022</v>
       </c>
       <c r="C8" t="s">
@@ -2047,15 +2259,15 @@
       <c r="A9">
         <v>48</v>
       </c>
-      <c r="B9" s="4" t="e">
-        <f>CONCATENATE("1",VLOOKUP(D9,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H9,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J9,Constantes!$A$1:$B$100,2,FALSE))</f>
-        <v>#N/A</v>
+      <c r="B9" s="4" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D9,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H9,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J9,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>105011</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
@@ -2113,15 +2325,15 @@
       <c r="A10">
         <v>49</v>
       </c>
-      <c r="B10" s="4" t="e">
-        <f>CONCATENATE("1",VLOOKUP(D10,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H10,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J10,Constantes!$A$1:$B$100,2,FALSE))</f>
-        <v>#N/A</v>
+      <c r="B10" s="4" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D10,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H10,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J10,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>106011</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -2180,7 +2392,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D11,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H11,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J11,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D11,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H11,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J11,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>107011</v>
       </c>
       <c r="C11" t="s">
@@ -2246,7 +2458,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D12,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H12,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J12,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D12,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H12,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J12,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>108011</v>
       </c>
       <c r="C12" t="s">
@@ -2312,7 +2524,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D13,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H13,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J13,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D13,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H13,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J13,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>109011</v>
       </c>
       <c r="C13" t="s">
@@ -2378,7 +2590,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D14,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H14,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J14,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D14,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H14,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J14,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>110011</v>
       </c>
       <c r="C14" t="s">
@@ -2444,7 +2656,7 @@
         <v>54</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D15,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H15,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J15,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D15,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H15,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J15,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>111011</v>
       </c>
       <c r="C15" t="s">
@@ -2510,7 +2722,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D16,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H16,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J16,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D16,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H16,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J16,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>112011</v>
       </c>
       <c r="C16" t="s">
@@ -2571,12 +2783,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>56</v>
       </c>
       <c r="B17" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D17,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H17,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J17,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D17,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H17,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J17,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>113011</v>
       </c>
       <c r="C17" t="s">
@@ -2637,12 +2849,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>57</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D18,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H18,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J18,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D18,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H18,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J18,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>114011</v>
       </c>
       <c r="C18" t="s">
@@ -2703,12 +2915,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>58</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D19,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H19,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J19,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D19,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H19,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J19,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>105022</v>
       </c>
       <c r="C19" t="s">
@@ -2769,12 +2981,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>59</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D20,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H20,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J20,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D20,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H20,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J20,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>106022</v>
       </c>
       <c r="C20" t="s">
@@ -2835,12 +3047,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>60</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D21,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H21,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J21,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D21,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H21,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J21,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>107022</v>
       </c>
       <c r="C21" t="s">
@@ -2901,12 +3113,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>61</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D22,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H22,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J22,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D22,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H22,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J22,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>108022</v>
       </c>
       <c r="C22" t="s">
@@ -2967,12 +3179,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>62</v>
       </c>
       <c r="B23" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D23,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H23,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J23,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D23,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H23,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J23,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>109022</v>
       </c>
       <c r="C23" t="s">
@@ -3033,12 +3245,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>63</v>
       </c>
       <c r="B24" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D24,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H24,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J24,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D24,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H24,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J24,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>110022</v>
       </c>
       <c r="C24" t="s">
@@ -3099,12 +3311,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>64</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D25,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H25,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J25,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D25,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H25,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J25,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>111022</v>
       </c>
       <c r="C25" t="s">
@@ -3165,12 +3377,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>65</v>
       </c>
       <c r="B26" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D26,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H26,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J26,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D26,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H26,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J26,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>112022</v>
       </c>
       <c r="C26" t="s">
@@ -3231,12 +3443,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>66</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D27,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H27,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J27,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D27,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H27,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J27,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>113022</v>
       </c>
       <c r="C27" t="s">
@@ -3297,12 +3509,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>67</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f>CONCATENATE("1",VLOOKUP(D28,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(H28,Constantes!$A$1:$B$100,2,FALSE),VLOOKUP(J28,Constantes!$A$1:$B$100,2,FALSE))</f>
+        <f>CONCATENATE("1",VLOOKUP(D28,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H28,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J28,Constantes!$A$1:$B$116,2,FALSE))</f>
         <v>114022</v>
       </c>
       <c r="C28" t="s">
@@ -3363,11 +3575,1579 @@
         <v>62</v>
       </c>
     </row>
+    <row r="29" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D29,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H29,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J29,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>101012</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>4096</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
+        <v>1</v>
+      </c>
+      <c r="T29" s="8">
+        <v>1</v>
+      </c>
+      <c r="U29" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D30,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H30,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J30,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>102012</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>4096</v>
+      </c>
+      <c r="R30" s="11">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <v>1</v>
+      </c>
+      <c r="T30" s="12">
+        <v>1</v>
+      </c>
+      <c r="U30" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D31,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H31,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J31,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>103012</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>2048</v>
+      </c>
+      <c r="R31" s="11">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <v>1</v>
+      </c>
+      <c r="T31" s="12">
+        <v>1</v>
+      </c>
+      <c r="U31" s="12">
+        <v>51</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D32,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H32,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J32,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>104012</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>4096</v>
+      </c>
+      <c r="R32" s="11">
+        <v>0</v>
+      </c>
+      <c r="S32" s="12">
+        <v>1</v>
+      </c>
+      <c r="T32" s="12">
+        <v>1</v>
+      </c>
+      <c r="U32" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D33,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H33,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J33,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>105012</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>6144</v>
+      </c>
+      <c r="R33" s="11">
+        <v>0</v>
+      </c>
+      <c r="S33" s="12">
+        <v>1</v>
+      </c>
+      <c r="T33" s="12">
+        <v>1</v>
+      </c>
+      <c r="U33" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D34,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H34,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J34,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>106012</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>6144</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0</v>
+      </c>
+      <c r="S34" s="12">
+        <v>1</v>
+      </c>
+      <c r="T34" s="12">
+        <v>1</v>
+      </c>
+      <c r="U34" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D35,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H35,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J35,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>107012</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>6144</v>
+      </c>
+      <c r="R35" s="11">
+        <v>0</v>
+      </c>
+      <c r="S35" s="12">
+        <v>1</v>
+      </c>
+      <c r="T35" s="12">
+        <v>1</v>
+      </c>
+      <c r="U35" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D36,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H36,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J36,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>108012</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>6144</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="12">
+        <v>1</v>
+      </c>
+      <c r="T36" s="12">
+        <v>1</v>
+      </c>
+      <c r="U36" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D37,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H37,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J37,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>109012</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>6144</v>
+      </c>
+      <c r="R37" s="11">
+        <v>0</v>
+      </c>
+      <c r="S37" s="12">
+        <v>1</v>
+      </c>
+      <c r="T37" s="12">
+        <v>1</v>
+      </c>
+      <c r="U37" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D38,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H38,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J38,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>110012</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>6144</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="12">
+        <v>1</v>
+      </c>
+      <c r="T38" s="12">
+        <v>1</v>
+      </c>
+      <c r="U38" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D39,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H39,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J39,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>111012</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>6144</v>
+      </c>
+      <c r="R39" s="11">
+        <v>0</v>
+      </c>
+      <c r="S39" s="12">
+        <v>1</v>
+      </c>
+      <c r="T39" s="12">
+        <v>1</v>
+      </c>
+      <c r="U39" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D40,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H40,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J40,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>112012</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>6144</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="12">
+        <v>1</v>
+      </c>
+      <c r="T40" s="12">
+        <v>1</v>
+      </c>
+      <c r="U40" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D41,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H41,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J41,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>113012</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>6144</v>
+      </c>
+      <c r="R41" s="11">
+        <v>0</v>
+      </c>
+      <c r="S41" s="12">
+        <v>1</v>
+      </c>
+      <c r="T41" s="12">
+        <v>1</v>
+      </c>
+      <c r="U41" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D42,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H42,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J42,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>114012</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>6144</v>
+      </c>
+      <c r="R42" s="15">
+        <v>0</v>
+      </c>
+      <c r="S42" s="16">
+        <v>1</v>
+      </c>
+      <c r="T42" s="16">
+        <v>1</v>
+      </c>
+      <c r="U42" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D43,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H43,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J43,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>115012</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I43" t="s">
+        <v>204</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D44,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H44,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J44,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>116012</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D45,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H45,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J45,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>117012</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" t="s">
+        <v>204</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D46,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H46,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J46,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>118012</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" t="s">
+        <v>204</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D47,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H47,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J47,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>119012</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D48,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H48,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J48,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>120012</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" t="s">
+        <v>204</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D49,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H49,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J49,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>121012</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I49" t="s">
+        <v>204</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D50,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H50,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J50,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>122012</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" t="s">
+        <v>204</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D51,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H51,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J51,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>123012</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I51" t="s">
+        <v>204</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D52,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H52,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J52,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>124012</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" t="s">
+        <v>199</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I52" t="s">
+        <v>204</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D53,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H53,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J53,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>125012</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" t="s">
+        <v>200</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" t="s">
+        <v>204</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D54,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H54,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J54,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>126012</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I54" t="s">
+        <v>204</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D55,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H55,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J55,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>127012</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" t="s">
+        <v>202</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I55" t="s">
+        <v>204</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D56,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H56,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J56,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>128012</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" t="s">
+        <v>203</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D57,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H57,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J57,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>129012</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" t="s">
+        <v>204</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D58,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H58,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J58,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>130012</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" t="s">
+        <v>204</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D59,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H59,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J59,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>115022</v>
+      </c>
+      <c r="D59" t="s">
+        <v>174</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D60,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H60,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J60,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>116022</v>
+      </c>
+      <c r="D60" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D61,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H61,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J61,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>117022</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D62,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H62,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J62,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>118022</v>
+      </c>
+      <c r="D62" t="s">
+        <v>177</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D63,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H63,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J63,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>119022</v>
+      </c>
+      <c r="D63" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D64,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H64,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J64,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>120022</v>
+      </c>
+      <c r="D64" t="s">
+        <v>179</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D65,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H65,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J65,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>121022</v>
+      </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D66,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H66,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J66,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>122022</v>
+      </c>
+      <c r="D66" t="s">
+        <v>181</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D67,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H67,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J67,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>123022</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D68,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H68,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J68,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>124022</v>
+      </c>
+      <c r="D68" t="s">
+        <v>183</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D69,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H69,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J69,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>125022</v>
+      </c>
+      <c r="D69" t="s">
+        <v>184</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D70,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H70,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J70,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>126022</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D71,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H71,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J71,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>127022</v>
+      </c>
+      <c r="D71" t="s">
+        <v>186</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D72,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H72,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J72,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>128022</v>
+      </c>
+      <c r="D72" t="s">
+        <v>187</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D73,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H73,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J73,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>129022</v>
+      </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="str">
+        <f>CONCATENATE("1",VLOOKUP(D74,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(H74,Constantes!$A$1:$B$116,2,FALSE),VLOOKUP(J74,Constantes!$A$1:$B$116,2,FALSE))</f>
+        <v>130022</v>
+      </c>
+      <c r="D74" t="s">
+        <v>189</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:X28">
-    <filterColumn colId="7">
+    <filterColumn colId="9">
       <filters>
-        <filter val="HCS862V4-MW2"/>
+        <filter val="ITDV4.0"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3377,15 +5157,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3502,7 +5283,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3510,7 +5291,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -3518,7 +5299,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -3526,24 +5307,216 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>153</v>
       </c>
     </row>
